--- a/ApolloQA/Data/RatingManual/GA/VA00059.BusinessExperienceFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00059.BusinessExperienceFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.BusinessExperienceFactors" sheetId="1" r:id="Re5711be5bb974992"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.BusinessExperienceFactors" sheetId="1" r:id="R8dd16199a6c14b6c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,16 +12,92 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Business Experience Lower Bound</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Business Experience Upper Bound</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Business Experience Factor</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>Class Code</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Lower Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Class Code_Fleet Size Factor</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0520</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0520</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0520</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0520</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0520</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>0</x:v>
       </x:c>
@@ -29,21 +105,237 @@
         <x:v>0</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>0.9953</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0047</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0095</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0143</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0191</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0239</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0288</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0337</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0386</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0435</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0584</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0837</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1097</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1470</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9988</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>1</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9789</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>2</x:v>
       </x:c>
@@ -51,10 +343,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9566</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0012</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>3</x:v>
       </x:c>
@@ -62,10 +357,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9333</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0024</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>4</x:v>
       </x:c>
@@ -73,10 +371,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9250</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0036</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>5</x:v>
       </x:c>
@@ -84,10 +385,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9250</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0048</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>6</x:v>
       </x:c>
@@ -95,10 +399,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9250</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0060</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>7</x:v>
       </x:c>
@@ -106,10 +413,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9250</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0072</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>8</x:v>
       </x:c>
@@ -117,10 +427,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9250</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0084</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>9</x:v>
       </x:c>
@@ -128,18 +441,371 @@
         <x:v>9</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9250</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0096</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>10</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0108</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0145</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0206</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0267</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9250</x:v>
+        <x:v>1.0353</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9988</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0012</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0024</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0036</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0048</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0060</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0072</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0084</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0096</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0108</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0145</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0206</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0267</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0353</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0043</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9957</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9914</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9871</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9828</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
